--- a/biology/Médecine/Œdème_de_Quincke/Œdème_de_Quincke.xlsx
+++ b/biology/Médecine/Œdème_de_Quincke/Œdème_de_Quincke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%92d%C3%A8me_de_Quincke</t>
+          <t>Œdème_de_Quincke</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’angiœdème ou angio-œdème, connu aussi sous le nom d’œdème de Quincke et l’ancien terme œdème angioneurotique (en réalité angio-œdème héréditaire), est le gonflement (œdème) rapide de la peau, des muqueuses et des tissus sous-muqueux. En dehors de la forme courante, due à une allergie, il a été observé parmi les effets indésirables de certains médicaments, et notamment les IECA (Inhibiteur de l'enzyme de conversion de l'angiotensine).
 Par ailleurs, il existe une forme héréditaire, due au déficit en C1-Inhibiteur de la protéine sanguine. Cette forme est appelée « angio-œdème héréditaire » (« AOH »), qui est due au déficit en inhibiteur de la C1-estérase.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C5%92d%C3%A8me_de_Quincke</t>
+          <t>Œdème_de_Quincke</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Dr Heinrich Quincke a décrit pour la première fois le tableau clinique de l’angio-œdème en 1882. Sir William Osler a remarqué en 1888 que certains cas pouvaient avoir une base héréditaire ; il a donc inventé le terme « œdème angio-neurotique héréditaire ».
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C5%92d%C3%A8me_de_Quincke</t>
+          <t>Œdème_de_Quincke</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Signes et symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La peau du visage, normalement autour de la bouche et la muqueuse buccale et / ou la gorge, ainsi que la langue enflent pendant quelques minutes ou plusieurs heures. Le gonflement peut aussi se produire ailleurs, généralement sur les mains. Parfois, le patient a été exposé récemment à un allergène (ex. : cacahuètes), et une urticaire se développe simultanément ; mais bien souvent, l’origine est idiopathique (inconnue). Le gonflement peut provoquer un prurit (démangeaisons de la peau). Il peut aussi y avoir une paresthésie (diminution de la sensibilité dans les zones touchées), en raison de la compression des nerfs.
 Dans les cas graves, un bronchospasme peut se produire, avec des halètements à l’inspiration et une baisse de la saturation en oxygène. Une intubation trachéale et un traitement rapide par adrénaline et antihistaminiques est nécessaire dans ces cas-là.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C5%92d%C3%A8me_de_Quincke</t>
+          <t>Œdème_de_Quincke</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic est établi sur la base du tableau clinique. Lorsque le patient a été stabilisé, les taux du complément, et notamment C1-Inhibiteur et déplétion des facteurs du complément 2 et 4, peuvent indiquer la présence d’un angio-œdème héréditaire.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C5%92d%C3%A8me_de_Quincke</t>
+          <t>Œdème_de_Quincke</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La voie courante finale pour le développement de l'angiœdème semble être l'activation de la voie de la bradykinine. Ce peptide est un puissant vasodilatateur, entraînant une accumulation rapide de fluide dans l’interstitium. Ceci est le plus évident sur le visage, où la peau a relativement peu de tissu conjonctif de soutien et l'œdème se développe facilement. La bradykinine est libérée par différents types de cellules, en réponse à de nombreux stimuli différents ; c'est aussi un médiateur de la douleur.
 Divers mécanismes interférant avec la production ou la dégradation de la bradykinine peuvent induire un angio-œdème. Les IEC bloquent la fonction de la kininase II, l'enzyme qui dégrade la bradykinine.
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C5%92d%C3%A8me_de_Quincke</t>
+          <t>Œdème_de_Quincke</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,12 +662,14 @@
           <t>Causes possibles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Cette pathologie peut avoir de très nombreuses origines[1],[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cette pathologie peut avoir de très nombreuses origines, :
 allergiques :
 alimentaire, du fait d'un aliment à risque allergène tels que cacahuètes, fruits à coque, crustacés, etc.,
-médicamenteuse, notamment les antibiotiques, anti-inflammatoires, anesthésiques, vaccins[3] et produits utilisés au cours de certains examens médicaux, etc.,
+médicamenteuse, notamment les antibiotiques, anti-inflammatoires, anesthésiques, vaccins et produits utilisés au cours de certains examens médicaux, etc.,
 piqures d'insectes tels que guêpes, abeilles, frelons, ou de certains arthropodes, etc.,
 latex ;
 non allergiques :
@@ -665,7 +687,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>%C5%92d%C3%A8me_de_Quincke</t>
+          <t>Œdème_de_Quincke</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -685,45 +707,87 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traitement de la crise
-L'œdème de Quincke peut être grave car il peut évoluer rapidement vers une obstruction des voies respiratoires due à l'œdème laryngé et vers un état de choc anaphylactique.
-Le traitement de la crise est urgent et nécessite l'association d'adrénaline (en intramusculaire ou perlinguale) et de corticoïde en intramusculaire ou intraveineux. L'administration d'une dose d'adrénaline en sous cutané est recommandée : en concentration 1⁄1000, 0,01 ml/kg/dose (dose maximale de 0,3 ml/dose) ; ré-administration si nécessaire après 20 minutes. Un transport médicalisé pour une surveillance hospitalière est nécessaire même en cas de franche amélioration car une réaggravation est possible[4]. En l'absence de signe de gravité, le traitement consiste en l'administration d'antihistaminiques et de corticoïdes[5].
+          <t>Traitement de la crise</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'œdème de Quincke peut être grave car il peut évoluer rapidement vers une obstruction des voies respiratoires due à l'œdème laryngé et vers un état de choc anaphylactique.
+Le traitement de la crise est urgent et nécessite l'association d'adrénaline (en intramusculaire ou perlinguale) et de corticoïde en intramusculaire ou intraveineux. L'administration d'une dose d'adrénaline en sous cutané est recommandée : en concentration 1⁄1000, 0,01 ml/kg/dose (dose maximale de 0,3 ml/dose) ; ré-administration si nécessaire après 20 minutes. Un transport médicalisé pour une surveillance hospitalière est nécessaire même en cas de franche amélioration car une réaggravation est possible. En l'absence de signe de gravité, le traitement consiste en l'administration d'antihistaminiques et de corticoïdes.
 La diphénhydramine (Bénadryl) fait également partie du traitement d'urgence[réf. nécessaire].
-Traitement préventif
-Dans le cas de l’angioœdème allergique, l’absence d’exposition à l’allergène et l’utilisation d’antihistaminiques sont susceptibles de prévenir les crises futures. La cétirizine, commercialisée sous le nom de Zyrtec ou Reactine, est un antihistaminique couramment prescrit en cas d’angiœdème. Les cas d’angiœdème sévères peuvent nécessiter une désensibilisation à l’allergène putatif, compte tenu du risque de mortalité. Les cas chroniques nécessitent une thérapie par stéroïdes, entraînant généralement une bonne réponse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Œdème_de_Quincke</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92d%C3%A8me_de_Quincke</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Traitement préventif</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cas de l’angioœdème allergique, l’absence d’exposition à l’allergène et l’utilisation d’antihistaminiques sont susceptibles de prévenir les crises futures. La cétirizine, commercialisée sous le nom de Zyrtec ou Reactine, est un antihistaminique couramment prescrit en cas d’angiœdème. Les cas d’angiœdème sévères peuvent nécessiter une désensibilisation à l’allergène putatif, compte tenu du risque de mortalité. Les cas chroniques nécessitent une thérapie par stéroïdes, entraînant généralement une bonne réponse.
 En cas d’utilisation d’un inhibiteur de l’ECA, le médicament doit être arrêté et tous les médicaments similaires doivent être évités. Un débat controversé traite du fait de savoir si les antagonistes des récepteurs de l’angiotensine II peuvent être utilisés en toute sécurité chez les patients ayant eu des crises antérieures d’angio-œdème.
 Dans les types I et II d’angio-œdème acquis, et d’angio-œdème non histaminergique, les antifibrinolytiques tels que l’acide tranexamique ou l’acide ε-aminocaproïque peuvent être efficaces.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>%C5%92d%C3%A8me_de_Quincke</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Œdème_de_Quincke</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C5%92d%C3%A8me_de_Quincke</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Séquelles et suivi</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diverses complications peuvent être induite par une anoxie trop longue, quand le choc se prolonge ou que le bronchospasme ne cède pas aux premiers traitements[6] :  
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diverses complications peuvent être induite par une anoxie trop longue, quand le choc se prolonge ou que le bronchospasme ne cède pas aux premiers traitements :  
 coma végétatif ;
 syndrome hémorragique ;
 syndrome de détresse respiratoire aiguë ;
